--- a/Unity/Assets/Config/Excel/AbilityConfig/GlobalSetting/GlobalSettingCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GlobalSetting/GlobalSettingCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalSetting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CC04E5-5994-4206-9A1E-F4AFD3B39D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1A6D48-C6C0-49F6-980F-14CECD015359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23556" yWindow="4212" windowWidth="17280" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -94,6 +94,41 @@
   </si>
   <si>
     <t>hh1;hh2|hh3,hh4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARPVECfgId</t>
+  </si>
+  <si>
+    <t>AR模式PVE的cfgId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR模式PVP的cfgId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_ARRoomPVE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_ARRoomPVP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_ARRoomEndlessChallenge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARPVPCfgId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AREndlessChallengeCfgId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR模式PVE无尽模式的cfgId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -467,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -554,6 +589,48 @@
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GlobalSetting/GlobalSettingCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GlobalSetting/GlobalSettingCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalSetting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1A6D48-C6C0-49F6-980F-14CECD015359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8300BBAC-857C-4E2A-93F1-6816413A56D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -129,6 +129,57 @@
   </si>
   <si>
     <t>AR模式PVE无尽模式的cfgId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowDamage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否显示伤害数字展示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARTutorialFirstCfgId</t>
+  </si>
+  <si>
+    <t>AR模式新手指引关卡的cfgId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_ARRoomTutorialFirst</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手世界观信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIcon_Avatar01|ResIcon_Avatar02|ResIcon_Avatar03|ResIcon_Avatar04|ResIcon_Avatar05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=|),string#ref=ResIconCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarIcons</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeginnersGuideImgs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=|),((map#sep=;),string#ref=ResIconCfgCategory,string)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIcon_Beginners_Guide1;TextCode_Key_TutorialText_WorldDes1|ResIcon_Beginners_Guide2;TextCode_Key_TutorialText_WorldDes2|ResIcon_Beginners_Guide3;TextCode_Key_TutorialText_WorldDes3|ResIcon_Beginners_Guide4;TextCode_Key_TutorialText_WorldDes4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -502,17 +553,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -591,44 +642,97 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
+      <c r="A8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GlobalSetting/GlobalSettingCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GlobalSetting/GlobalSettingCfg.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalSetting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmgz0\Documents\git\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalSetting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8300BBAC-857C-4E2A-93F1-6816413A56D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96983472-301D-4840-8625-F96C61BE8030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,161 +26,233 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+  <si>
+    <t>##column#var</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>具体参数</t>
+  </si>
+  <si>
+    <t>testGlobalSetting1</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>测试描述11</t>
+  </si>
+  <si>
+    <t>testGlobalSetting2</t>
+  </si>
+  <si>
+    <t>测试描述21</t>
+  </si>
+  <si>
+    <t>testGlobalSetting3</t>
+  </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>testGlobalSetting1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>testGlobalSetting2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试描述11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试描述21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>testGlobalSetting3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>hello world</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>testGlobalSetting4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>##type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>##column#var</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体参数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(list#sep=|),string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>hh1;hh2|hh3,hh4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARTutorialFirstCfgId</t>
+  </si>
+  <si>
+    <t>AR模式新手指引关卡的cfgId</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_ARRoomTutorialFirst</t>
   </si>
   <si>
     <t>ARPVECfgId</t>
   </si>
   <si>
     <t>AR模式PVE的cfgId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_ARRoomPVE</t>
+  </si>
+  <si>
+    <t>ARPVPCfgId</t>
   </si>
   <si>
     <t>AR模式PVP的cfgId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_ARRoomPVE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GamePlayBattleLevel_ARRoomPVP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AREndlessChallengeCfgId</t>
+  </si>
+  <si>
+    <t>AR模式PVE无尽模式的cfgId</t>
   </si>
   <si>
     <t>GamePlayBattleLevel_ARRoomEndlessChallenge</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARPVPCfgId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AREndlessChallengeCfgId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AR模式PVE无尽模式的cfgId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ShowDamage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>是否显示伤害数字展示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARTutorialFirstCfgId</t>
-  </si>
-  <si>
-    <t>AR模式新手指引关卡的cfgId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_ARRoomTutorialFirst</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarIcons</t>
+  </si>
+  <si>
+    <t>(list#sep=|),string#ref=ResIconCfgCategory</t>
+  </si>
+  <si>
+    <t>ResIcon_Avatar01|ResIcon_Avatar02|ResIcon_Avatar03|ResIcon_Avatar04|ResIcon_Avatar05</t>
+  </si>
+  <si>
+    <t>BeginnersGuideImgs</t>
+  </si>
+  <si>
+    <t>(list#sep=|),((map#sep=;),string#ref=ResIconCfgCategory,string)</t>
   </si>
   <si>
     <t>新手世界观信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResIcon_Avatar01|ResIcon_Avatar02|ResIcon_Avatar03|ResIcon_Avatar04|ResIcon_Avatar05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=|),string#ref=ResIconCfgCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AvatarIcons</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeginnersGuideImgs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=|),((map#sep=;),string#ref=ResIconCfgCategory,string)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ResIcon_Beginners_Guide1;TextCode_Key_TutorialText_WorldDes1|ResIcon_Beginners_Guide2;TextCode_Key_TutorialText_WorldDes2|ResIcon_Beginners_Guide3;TextCode_Key_TutorialText_WorldDes3|ResIcon_Beginners_Guide4;TextCode_Key_TutorialText_WorldDes4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitialPhysicalStrength</t>
+  </si>
+  <si>
+    <t>初始体力值</t>
+  </si>
+  <si>
+    <t>UpperLimitOfPhysicalStrength</t>
+  </si>
+  <si>
+    <t>体力值上限</t>
+  </si>
+  <si>
+    <t>RecoverTimeOfPhysicalStrength</t>
+  </si>
+  <si>
+    <t>体力值恢复时长</t>
+  </si>
+  <si>
+    <t>RecoverIncreaseOfPhysicalStrength</t>
+  </si>
+  <si>
+    <t>体力值恢复增加量</t>
+  </si>
+  <si>
+    <t>RecoverIncreaseOfPhysicalStrengthByAd</t>
+  </si>
+  <si>
+    <t>看广告体力值恢复量</t>
+  </si>
+  <si>
+    <t>ARPVECfgTakePhsicalStrength</t>
+  </si>
+  <si>
+    <t>AR模式PVE所需体力</t>
+  </si>
+  <si>
+    <t>ARPVPCfgTakePhsicalStrength</t>
+  </si>
+  <si>
+    <t>AR模式PVP所需体力</t>
+  </si>
+  <si>
+    <t>AREndlessChallengeTakePhsicalStrength</t>
+  </si>
+  <si>
+    <t>AR模式PVE无尽模式所需体力</t>
+  </si>
+  <si>
+    <t>PVELock</t>
+  </si>
+  <si>
+    <t>挑战模式是否加锁</t>
+  </si>
+  <si>
+    <t>PVPLock</t>
+  </si>
+  <si>
+    <t>PVP模式是否加锁</t>
+  </si>
+  <si>
+    <t>RankLock</t>
+  </si>
+  <si>
+    <t>排行榜是否加锁</t>
+  </si>
+  <si>
+    <t>TutorialLock</t>
+  </si>
+  <si>
+    <t>教程是否加锁</t>
+  </si>
+  <si>
+    <t>CardsLock</t>
+  </si>
+  <si>
+    <t>卡牌是否加锁</t>
+  </si>
+  <si>
+    <t>体力系统是否显示</t>
+  </si>
+  <si>
+    <t>TowerDefenseNearTowerDis</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>两塔允许最近距离</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告系统是否可用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdmobAvailable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalStrengthShow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -190,10 +262,9 @@
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -201,22 +272,19 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -229,7 +297,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -259,31 +327,100 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Excel Built-in Good" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006100"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFC6EFCE"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -296,7 +433,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -312,7 +449,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -324,7 +461,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -338,10 +475,10 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -371,12 +508,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -406,6 +560,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -548,196 +719,431 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:AMK29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="1025" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1">
         <v>0</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="1">
         <v>0</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1" t="b">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="4" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="4" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/GlobalSetting/GlobalSettingCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GlobalSetting/GlobalSettingCfg.xlsx
@@ -1,31 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmgz0\Documents\git\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalSetting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalSetting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96983472-301D-4840-8625-F96C61BE8030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E5F93A-3DAF-426E-B7EC-41BA85A90FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -34,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
   <si>
     <t>##column#var</t>
   </si>
@@ -78,180 +69,221 @@
     <t>testGlobalSetting4</t>
   </si>
   <si>
+    <t>hh1;hh2|hh3,hh4</t>
+  </si>
+  <si>
+    <t>ARTutorialFirstCfgId</t>
+  </si>
+  <si>
+    <t>AR模式新手指引关卡的cfgId</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_ARRoomTutorialFirst</t>
+  </si>
+  <si>
+    <t>ARPVECfgId</t>
+  </si>
+  <si>
+    <t>AR模式PVE的cfgId</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_ARRoomPVE</t>
+  </si>
+  <si>
+    <t>ARPVPCfgId</t>
+  </si>
+  <si>
+    <t>AR模式PVP的cfgId</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_ARRoomPVP</t>
+  </si>
+  <si>
+    <t>AREndlessChallengeCfgId</t>
+  </si>
+  <si>
+    <t>AR模式PVE无尽模式的cfgId</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_ARRoomEndlessChallenge</t>
+  </si>
+  <si>
+    <t>ShowDamage</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>是否显示伤害数字展示</t>
+  </si>
+  <si>
+    <t>ResIcon_Avatar01|ResIcon_Avatar02|ResIcon_Avatar03|ResIcon_Avatar04|ResIcon_Avatar05</t>
+  </si>
+  <si>
+    <t>BeginnersGuideImgs</t>
+  </si>
+  <si>
+    <t>(list#sep=|),((map#sep=;),string#ref=ResIconCfgCategory,string)</t>
+  </si>
+  <si>
+    <t>新手世界观信息</t>
+  </si>
+  <si>
+    <t>ResIcon_Beginners_Guide1;TextCode_Key_TutorialText_WorldDes1|ResIcon_Beginners_Guide2;TextCode_Key_TutorialText_WorldDes2|ResIcon_Beginners_Guide3;TextCode_Key_TutorialText_WorldDes3|ResIcon_Beginners_Guide4;TextCode_Key_TutorialText_WorldDes4</t>
+  </si>
+  <si>
+    <t>InitialPhysicalStrength</t>
+  </si>
+  <si>
+    <t>初始体力值</t>
+  </si>
+  <si>
+    <t>UpperLimitOfPhysicalStrength</t>
+  </si>
+  <si>
+    <t>体力值上限</t>
+  </si>
+  <si>
+    <t>RecoverTimeOfPhysicalStrength</t>
+  </si>
+  <si>
+    <t>体力值恢复时长</t>
+  </si>
+  <si>
+    <t>RecoverIncreaseOfPhysicalStrength</t>
+  </si>
+  <si>
+    <t>体力值恢复增加量</t>
+  </si>
+  <si>
+    <t>RecoverIncreaseOfPhysicalStrengthByAd</t>
+  </si>
+  <si>
+    <t>看广告体力值恢复量</t>
+  </si>
+  <si>
+    <t>ARPVECfgTakePhsicalStrength</t>
+  </si>
+  <si>
+    <t>AR模式PVE所需体力</t>
+  </si>
+  <si>
+    <t>ARPVPCfgTakePhsicalStrength</t>
+  </si>
+  <si>
+    <t>AR模式PVP所需体力</t>
+  </si>
+  <si>
+    <t>AREndlessChallengeTakePhsicalStrength</t>
+  </si>
+  <si>
+    <t>AR模式PVE无尽模式所需体力</t>
+  </si>
+  <si>
+    <t>PVELock</t>
+  </si>
+  <si>
+    <t>挑战模式是否加锁</t>
+  </si>
+  <si>
+    <t>PVPLock</t>
+  </si>
+  <si>
+    <t>PVP模式是否加锁</t>
+  </si>
+  <si>
+    <t>RankLock</t>
+  </si>
+  <si>
+    <t>排行榜是否加锁</t>
+  </si>
+  <si>
+    <t>TutorialLock</t>
+  </si>
+  <si>
+    <t>教程是否加锁</t>
+  </si>
+  <si>
+    <t>CardsLock</t>
+  </si>
+  <si>
+    <t>卡牌是否加锁</t>
+  </si>
+  <si>
+    <t>体力系统是否显示</t>
+  </si>
+  <si>
+    <t>TowerDefenseNearTowerDis</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>两塔允许最近距离</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告系统是否可用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdmobAvailable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalStrengthShow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowGetGold</t>
+  </si>
+  <si>
+    <t>是否显示金币获得展示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始背包物体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=|),string#ref=ResIconCfgCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>(list#sep=|),string</t>
-  </si>
-  <si>
-    <t>hh1;hh2|hh3,hh4</t>
-  </si>
-  <si>
-    <t>ARTutorialFirstCfgId</t>
-  </si>
-  <si>
-    <t>AR模式新手指引关卡的cfgId</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_ARRoomTutorialFirst</t>
-  </si>
-  <si>
-    <t>ARPVECfgId</t>
-  </si>
-  <si>
-    <t>AR模式PVE的cfgId</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_ARRoomPVE</t>
-  </si>
-  <si>
-    <t>ARPVPCfgId</t>
-  </si>
-  <si>
-    <t>AR模式PVP的cfgId</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_ARRoomPVP</t>
-  </si>
-  <si>
-    <t>AREndlessChallengeCfgId</t>
-  </si>
-  <si>
-    <t>AR模式PVE无尽模式的cfgId</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_ARRoomEndlessChallenge</t>
-  </si>
-  <si>
-    <t>ShowDamage</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>是否显示伤害数字展示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=|),string#ref=ItemCfgCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitialBackpackItem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AvatarIcons</t>
-  </si>
-  <si>
-    <t>(list#sep=|),string#ref=ResIconCfgCategory</t>
-  </si>
-  <si>
-    <t>ResIcon_Avatar01|ResIcon_Avatar02|ResIcon_Avatar03|ResIcon_Avatar04|ResIcon_Avatar05</t>
-  </si>
-  <si>
-    <t>BeginnersGuideImgs</t>
-  </si>
-  <si>
-    <t>(list#sep=|),((map#sep=;),string#ref=ResIconCfgCategory,string)</t>
-  </si>
-  <si>
-    <t>新手世界观信息</t>
-  </si>
-  <si>
-    <t>ResIcon_Beginners_Guide1;TextCode_Key_TutorialText_WorldDes1|ResIcon_Beginners_Guide2;TextCode_Key_TutorialText_WorldDes2|ResIcon_Beginners_Guide3;TextCode_Key_TutorialText_WorldDes3|ResIcon_Beginners_Guide4;TextCode_Key_TutorialText_WorldDes4</t>
-  </si>
-  <si>
-    <t>InitialPhysicalStrength</t>
-  </si>
-  <si>
-    <t>初始体力值</t>
-  </si>
-  <si>
-    <t>UpperLimitOfPhysicalStrength</t>
-  </si>
-  <si>
-    <t>体力值上限</t>
-  </si>
-  <si>
-    <t>RecoverTimeOfPhysicalStrength</t>
-  </si>
-  <si>
-    <t>体力值恢复时长</t>
-  </si>
-  <si>
-    <t>RecoverIncreaseOfPhysicalStrength</t>
-  </si>
-  <si>
-    <t>体力值恢复增加量</t>
-  </si>
-  <si>
-    <t>RecoverIncreaseOfPhysicalStrengthByAd</t>
-  </si>
-  <si>
-    <t>看广告体力值恢复量</t>
-  </si>
-  <si>
-    <t>ARPVECfgTakePhsicalStrength</t>
-  </si>
-  <si>
-    <t>AR模式PVE所需体力</t>
-  </si>
-  <si>
-    <t>ARPVPCfgTakePhsicalStrength</t>
-  </si>
-  <si>
-    <t>AR模式PVP所需体力</t>
-  </si>
-  <si>
-    <t>AREndlessChallengeTakePhsicalStrength</t>
-  </si>
-  <si>
-    <t>AR模式PVE无尽模式所需体力</t>
-  </si>
-  <si>
-    <t>PVELock</t>
-  </si>
-  <si>
-    <t>挑战模式是否加锁</t>
-  </si>
-  <si>
-    <t>PVPLock</t>
-  </si>
-  <si>
-    <t>PVP模式是否加锁</t>
-  </si>
-  <si>
-    <t>RankLock</t>
-  </si>
-  <si>
-    <t>排行榜是否加锁</t>
-  </si>
-  <si>
-    <t>TutorialLock</t>
-  </si>
-  <si>
-    <t>教程是否加锁</t>
-  </si>
-  <si>
-    <t>CardsLock</t>
-  </si>
-  <si>
-    <t>卡牌是否加锁</t>
-  </si>
-  <si>
-    <t>体力系统是否显示</t>
-  </si>
-  <si>
-    <t>TowerDefenseNearTowerDis</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>两塔允许最近距离</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告系统是否可用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdmobAvailable</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PhysicalStrengthShow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow1_1|Tow2_1|Tow3_1|Tow4_1|Tow5_1|Tow6_1|Tow7_1|Tow8_1</t>
+  </si>
+  <si>
+    <t>AREndlessChallengeRecoverHp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AREndlessChallengeRecoverGold</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR无尽模式复活增加金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR无尽模式复活增加生命</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -259,7 +291,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -282,6 +314,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -329,7 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -346,6 +384,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Good" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -729,22 +768,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK29"/>
+  <dimension ref="A1:AMK57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
     <col min="5" max="1025" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -756,7 +795,7 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -765,7 +804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -779,7 +818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -793,7 +832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -805,345 +844,529 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="4" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="4" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="1" t="b">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="1" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="4" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="B26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="1" t="b">
+      <c r="D26" s="1" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="4" t="b">
+      <c r="D27" s="1" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="4" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="D30" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C37" s="6"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C38" s="6"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C39" s="6"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C40" s="6"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C41" s="6"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C42" s="6"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C43" s="6"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C44" s="6"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="G57" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/GlobalSetting/GlobalSettingCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GlobalSetting/GlobalSettingCfg.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalSetting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalSetting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E5F93A-3DAF-426E-B7EC-41BA85A90FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C3B59A-C23D-48A0-B5CD-C11C6B82840D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="84">
   <si>
     <t>##column#var</t>
   </si>
@@ -72,218 +81,232 @@
     <t>hh1;hh2|hh3,hh4</t>
   </si>
   <si>
+    <t>AR模式新手指引关卡的cfgId</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_ARRoomTutorialFirst</t>
+  </si>
+  <si>
+    <t>AR模式PVE的cfgId</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_ARRoomPVE</t>
+  </si>
+  <si>
+    <t>ARPVPCfgId</t>
+  </si>
+  <si>
+    <t>AR模式PVP的cfgId</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_ARRoomPVP</t>
+  </si>
+  <si>
+    <t>AREndlessChallengeCfgId</t>
+  </si>
+  <si>
+    <t>AR模式PVE无尽模式的cfgId</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_ARRoomEndlessChallenge</t>
+  </si>
+  <si>
+    <t>ShowDamage</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>是否显示伤害数字展示</t>
+  </si>
+  <si>
+    <t>ResIcon_Avatar01|ResIcon_Avatar02|ResIcon_Avatar03|ResIcon_Avatar04|ResIcon_Avatar05</t>
+  </si>
+  <si>
+    <t>BeginnersGuideImgs</t>
+  </si>
+  <si>
+    <t>(list#sep=|),((map#sep=;),string#ref=ResIconCfgCategory,string)</t>
+  </si>
+  <si>
+    <t>新手世界观信息</t>
+  </si>
+  <si>
+    <t>ResIcon_Beginners_Guide1;TextCode_Key_TutorialText_WorldDes1|ResIcon_Beginners_Guide2;TextCode_Key_TutorialText_WorldDes2|ResIcon_Beginners_Guide3;TextCode_Key_TutorialText_WorldDes3|ResIcon_Beginners_Guide4;TextCode_Key_TutorialText_WorldDes4</t>
+  </si>
+  <si>
+    <t>InitialPhysicalStrength</t>
+  </si>
+  <si>
+    <t>初始体力值</t>
+  </si>
+  <si>
+    <t>UpperLimitOfPhysicalStrength</t>
+  </si>
+  <si>
+    <t>体力值上限</t>
+  </si>
+  <si>
+    <t>RecoverTimeOfPhysicalStrength</t>
+  </si>
+  <si>
+    <t>体力值恢复时长</t>
+  </si>
+  <si>
+    <t>RecoverIncreaseOfPhysicalStrength</t>
+  </si>
+  <si>
+    <t>体力值恢复增加量</t>
+  </si>
+  <si>
+    <t>RecoverIncreaseOfPhysicalStrengthByAd</t>
+  </si>
+  <si>
+    <t>看广告体力值恢复量</t>
+  </si>
+  <si>
+    <t>ARPVECfgTakePhsicalStrength</t>
+  </si>
+  <si>
+    <t>AR模式PVE所需体力</t>
+  </si>
+  <si>
+    <t>ARPVPCfgTakePhsicalStrength</t>
+  </si>
+  <si>
+    <t>AR模式PVP所需体力</t>
+  </si>
+  <si>
+    <t>AREndlessChallengeTakePhsicalStrength</t>
+  </si>
+  <si>
+    <t>AR模式PVE无尽模式所需体力</t>
+  </si>
+  <si>
+    <t>PVELock</t>
+  </si>
+  <si>
+    <t>挑战模式是否加锁</t>
+  </si>
+  <si>
+    <t>PVPLock</t>
+  </si>
+  <si>
+    <t>PVP模式是否加锁</t>
+  </si>
+  <si>
+    <t>RankLock</t>
+  </si>
+  <si>
+    <t>排行榜是否加锁</t>
+  </si>
+  <si>
+    <t>TutorialLock</t>
+  </si>
+  <si>
+    <t>教程是否加锁</t>
+  </si>
+  <si>
+    <t>CardsLock</t>
+  </si>
+  <si>
+    <t>卡牌是否加锁</t>
+  </si>
+  <si>
+    <t>体力系统是否显示</t>
+  </si>
+  <si>
+    <t>TowerDefenseNearTowerDis</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>两塔允许最近距离</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告系统是否可用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdmobAvailable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalStrengthShow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowGetGold</t>
+  </si>
+  <si>
+    <t>是否显示金币获得展示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始背包物体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=|),string#ref=ResIconCfgCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=|),string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=|),string#ref=ItemCfgCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitialBackpackItem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarIcons</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow1_1|Tow2_1|Tow3_1|Tow4_1|Tow5_1|Tow6_1|Tow7_1|Tow8_1</t>
+  </si>
+  <si>
+    <t>AREndlessChallengeRecoverHp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AREndlessChallengeRecoverGold</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR无尽模式复活增加金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR无尽模式复活增加生命</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameReJudgeTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARPVECfgId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>ARTutorialFirstCfgId</t>
-  </si>
-  <si>
-    <t>AR模式新手指引关卡的cfgId</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_ARRoomTutorialFirst</t>
-  </si>
-  <si>
-    <t>ARPVECfgId</t>
-  </si>
-  <si>
-    <t>AR模式PVE的cfgId</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_ARRoomPVE</t>
-  </si>
-  <si>
-    <t>ARPVPCfgId</t>
-  </si>
-  <si>
-    <t>AR模式PVP的cfgId</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_ARRoomPVP</t>
-  </si>
-  <si>
-    <t>AREndlessChallengeCfgId</t>
-  </si>
-  <si>
-    <t>AR模式PVE无尽模式的cfgId</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_ARRoomEndlessChallenge</t>
-  </si>
-  <si>
-    <t>ShowDamage</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>是否显示伤害数字展示</t>
-  </si>
-  <si>
-    <t>ResIcon_Avatar01|ResIcon_Avatar02|ResIcon_Avatar03|ResIcon_Avatar04|ResIcon_Avatar05</t>
-  </si>
-  <si>
-    <t>BeginnersGuideImgs</t>
-  </si>
-  <si>
-    <t>(list#sep=|),((map#sep=;),string#ref=ResIconCfgCategory,string)</t>
-  </si>
-  <si>
-    <t>新手世界观信息</t>
-  </si>
-  <si>
-    <t>ResIcon_Beginners_Guide1;TextCode_Key_TutorialText_WorldDes1|ResIcon_Beginners_Guide2;TextCode_Key_TutorialText_WorldDes2|ResIcon_Beginners_Guide3;TextCode_Key_TutorialText_WorldDes3|ResIcon_Beginners_Guide4;TextCode_Key_TutorialText_WorldDes4</t>
-  </si>
-  <si>
-    <t>InitialPhysicalStrength</t>
-  </si>
-  <si>
-    <t>初始体力值</t>
-  </si>
-  <si>
-    <t>UpperLimitOfPhysicalStrength</t>
-  </si>
-  <si>
-    <t>体力值上限</t>
-  </si>
-  <si>
-    <t>RecoverTimeOfPhysicalStrength</t>
-  </si>
-  <si>
-    <t>体力值恢复时长</t>
-  </si>
-  <si>
-    <t>RecoverIncreaseOfPhysicalStrength</t>
-  </si>
-  <si>
-    <t>体力值恢复增加量</t>
-  </si>
-  <si>
-    <t>RecoverIncreaseOfPhysicalStrengthByAd</t>
-  </si>
-  <si>
-    <t>看广告体力值恢复量</t>
-  </si>
-  <si>
-    <t>ARPVECfgTakePhsicalStrength</t>
-  </si>
-  <si>
-    <t>AR模式PVE所需体力</t>
-  </si>
-  <si>
-    <t>ARPVPCfgTakePhsicalStrength</t>
-  </si>
-  <si>
-    <t>AR模式PVP所需体力</t>
-  </si>
-  <si>
-    <t>AREndlessChallengeTakePhsicalStrength</t>
-  </si>
-  <si>
-    <t>AR模式PVE无尽模式所需体力</t>
-  </si>
-  <si>
-    <t>PVELock</t>
-  </si>
-  <si>
-    <t>挑战模式是否加锁</t>
-  </si>
-  <si>
-    <t>PVPLock</t>
-  </si>
-  <si>
-    <t>PVP模式是否加锁</t>
-  </si>
-  <si>
-    <t>RankLock</t>
-  </si>
-  <si>
-    <t>排行榜是否加锁</t>
-  </si>
-  <si>
-    <t>TutorialLock</t>
-  </si>
-  <si>
-    <t>教程是否加锁</t>
-  </si>
-  <si>
-    <t>CardsLock</t>
-  </si>
-  <si>
-    <t>卡牌是否加锁</t>
-  </si>
-  <si>
-    <t>体力系统是否显示</t>
-  </si>
-  <si>
-    <t>TowerDefenseNearTowerDis</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>两塔允许最近距离</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告系统是否可用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdmobAvailable</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PhysicalStrengthShow</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShowGetGold</t>
-  </si>
-  <si>
-    <t>是否显示金币获得展示</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始背包物体</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=|),string#ref=ResIconCfgCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=|),string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=|),string#ref=ItemCfgCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitialBackpackItem</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AvatarIcons</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tow1_1|Tow2_1|Tow3_1|Tow4_1|Tow5_1|Tow6_1|Tow7_1|Tow8_1</t>
-  </si>
-  <si>
-    <t>AREndlessChallengeRecoverHp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AREndlessChallengeRecoverGold</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AR无尽模式复活增加金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AR无尽模式复活增加生命</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要重新评估游戏的时刻</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -367,7 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -385,6 +408,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Good" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -770,20 +796,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" customWidth="1"/>
     <col min="5" max="1025" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -795,7 +821,7 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -804,7 +830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -818,7 +844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -832,7 +858,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -844,522 +870,531 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="D11" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="4" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D18" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25" s="1" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D26" s="1" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D27" s="1" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D29" s="1">
         <v>1.45</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D30" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D31" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="7">
+        <v>45362.785254629627</v>
+      </c>
       <c r="E34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C37" s="6"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C38" s="6"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C39" s="6"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C40" s="6"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C41" s="6"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C42" s="6"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C43" s="6"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C44" s="6"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="G57" s="4"/>
